--- a/output/invoice_screenshots_organized.xlsx
+++ b/output/invoice_screenshots_organized.xlsx
@@ -7,7 +7,46 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice Screenshots" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_17" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_19" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_20" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_21" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_22" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_23" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_24" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_25" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_26" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_27" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_28" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_29" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_30" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_31" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_32" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_33" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_34" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_35" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_36" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_37" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_38" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_39" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice_40" sheetId="40" state="visible" r:id="rId40"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,10 +56,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -46,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -133,7 +181,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -151,21 +199,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -176,21 +229,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>27</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -201,21 +259,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>27</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -226,21 +289,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>52</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -251,21 +319,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>52</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -276,21 +349,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>77</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -301,21 +379,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>77</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -326,21 +409,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>102</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -351,21 +439,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>102</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -376,21 +469,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>127</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -401,21 +499,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>127</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -426,21 +529,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>152</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -451,21 +559,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>152</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -476,21 +589,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>177</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -501,21 +619,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>177</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -526,21 +649,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>202</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -551,21 +679,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>202</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -576,21 +709,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>227</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -601,21 +739,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>227</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -626,21 +769,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>252</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -651,21 +799,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>252</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -676,21 +829,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>277</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -701,21 +859,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>277</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -726,21 +889,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>302</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -751,21 +919,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing32.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>302</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -776,21 +949,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing33.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>327</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -801,21 +979,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>327</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -826,21 +1009,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>352</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -851,21 +1039,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>352</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -876,21 +1069,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>377</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -901,21 +1099,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>377</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -926,21 +1129,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>402</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -951,21 +1159,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>402</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -976,21 +1189,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing40.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>427</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1001,21 +1219,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>427</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1026,21 +1249,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>452</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1051,21 +1279,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>452</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1076,21 +1309,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>477</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1101,21 +1339,26 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>477</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="3810000"/>
+    <ext cx="9525000" cy="12325350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1418,7 +1661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B498"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1426,282 +1669,3826 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Column 1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Column 2</t>
+          <t>American Express - Account Activity-0</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="250" customHeight="1"/>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>American Express - Account Activity</t>
+          <t>American Express - Account Activity-9</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-10.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>American Express - Account Activity-1</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="250" customHeight="1"/>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>American Express - Account Activity-2</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>American Express - Account Activity-3</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="250" customHeight="1"/>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>American Express - Account Activity-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>American Express - Account Activity-4</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>American Express - Account Activity-5</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="250" customHeight="1"/>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>American Express - Account Activity-6</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>American Express - Account Activity-7</t>
         </is>
       </c>
     </row>
-    <row r="103" ht="250" customHeight="1"/>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>American Express - Account Activity-8</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-9</t>
-        </is>
-      </c>
     </row>
-    <row r="128" ht="250" customHeight="1"/>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-10</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-10.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="153" ht="250" customHeight="1"/>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-11</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="178" ht="250" customHeight="1"/>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-13</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="203" ht="250" customHeight="1"/>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-15</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="228" ht="250" customHeight="1"/>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-17</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="253" ht="250" customHeight="1"/>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-19</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="278" ht="250" customHeight="1"/>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-21</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="303" ht="250" customHeight="1"/>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-23</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="328" ht="250" customHeight="1"/>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-25</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="353" ht="250" customHeight="1"/>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-27</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="378" ht="250" customHeight="1"/>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-29</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="403" ht="250" customHeight="1"/>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-31</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-32</t>
-        </is>
-      </c>
-    </row>
-    <row r="428" ht="250" customHeight="1"/>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-33</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-34</t>
-        </is>
-      </c>
-    </row>
-    <row r="453" ht="250" customHeight="1"/>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-35</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-36</t>
-        </is>
-      </c>
-    </row>
-    <row r="478" ht="250" customHeight="1"/>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-37</t>
-        </is>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>American Express - Account Activity-38</t>
-        </is>
-      </c>
-    </row>
+    <row r="3" ht="97.05" customHeight="1"/>
+    <row r="4" ht="97.05" customHeight="1"/>
+    <row r="5" ht="97.05" customHeight="1"/>
+    <row r="6" ht="97.05" customHeight="1"/>
+    <row r="7" ht="97.05" customHeight="1"/>
+    <row r="8" ht="97.05" customHeight="1"/>
+    <row r="9" ht="97.05" customHeight="1"/>
+    <row r="10" ht="97.05" customHeight="1"/>
+    <row r="11" ht="97.05" customHeight="1"/>
+    <row r="12" ht="97.05" customHeight="1"/>
+    <row r="13" ht="97.05" customHeight="1"/>
+    <row r="14" ht="97.05" customHeight="1"/>
+    <row r="15" ht="97.05" customHeight="1"/>
+    <row r="16" ht="97.05" customHeight="1"/>
+    <row r="17" ht="97.05" customHeight="1"/>
+    <row r="18" ht="97.05" customHeight="1"/>
+    <row r="19" ht="97.05" customHeight="1"/>
+    <row r="20" ht="97.05" customHeight="1"/>
+    <row r="21" ht="97.05" customHeight="1"/>
+    <row r="22" ht="97.05" customHeight="1"/>
+    <row r="23" ht="97.05" customHeight="1"/>
+    <row r="24" ht="97.05" customHeight="1"/>
+    <row r="25" ht="97.05" customHeight="1"/>
+    <row r="26" ht="97.05" customHeight="1"/>
+    <row r="27" ht="97.05" customHeight="1"/>
+    <row r="28" ht="97.05" customHeight="1"/>
+    <row r="29" ht="97.05" customHeight="1"/>
+    <row r="30" ht="97.05" customHeight="1"/>
+    <row r="31" ht="97.05" customHeight="1"/>
+    <row r="32" ht="97.05" customHeight="1"/>
+    <row r="33" ht="97.05" customHeight="1"/>
+    <row r="34" ht="97.05" customHeight="1"/>
+    <row r="35" ht="97.05" customHeight="1"/>
+    <row r="36" ht="97.05" customHeight="1"/>
+    <row r="37" ht="97.05" customHeight="1"/>
+    <row r="38" ht="97.05" customHeight="1"/>
+    <row r="39" ht="97.05" customHeight="1"/>
+    <row r="40" ht="97.05" customHeight="1"/>
+    <row r="41" ht="97.05" customHeight="1"/>
+    <row r="42" ht="97.05" customHeight="1"/>
+    <row r="43" ht="97.05" customHeight="1"/>
+    <row r="44" ht="97.05" customHeight="1"/>
+    <row r="45" ht="97.05" customHeight="1"/>
+    <row r="46" ht="97.05" customHeight="1"/>
+    <row r="47" ht="97.05" customHeight="1"/>
+    <row r="48" ht="97.05" customHeight="1"/>
+    <row r="49" ht="97.05" customHeight="1"/>
+    <row r="50" ht="97.05" customHeight="1"/>
+    <row r="51" ht="97.05" customHeight="1"/>
+    <row r="52" ht="97.05" customHeight="1"/>
+    <row r="53" ht="97.05" customHeight="1"/>
+    <row r="54" ht="97.05" customHeight="1"/>
+    <row r="55" ht="97.05" customHeight="1"/>
+    <row r="56" ht="97.05" customHeight="1"/>
+    <row r="57" ht="97.05" customHeight="1"/>
+    <row r="58" ht="97.05" customHeight="1"/>
+    <row r="59" ht="97.05" customHeight="1"/>
+    <row r="60" ht="97.05" customHeight="1"/>
+    <row r="61" ht="97.05" customHeight="1"/>
+    <row r="62" ht="97.05" customHeight="1"/>
+    <row r="63" ht="97.05" customHeight="1"/>
+    <row r="64" ht="97.05" customHeight="1"/>
+    <row r="65" ht="97.05" customHeight="1"/>
+    <row r="66" ht="97.05" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
